--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150745.6585864076</v>
+        <v>148858.0770700057</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>215.6411024678877</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>367.8129349065241</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,13 +716,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>68.08390849687525</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.40125615200021</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>242.5593788169599</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>139.9133151432366</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>20.33297654915566</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>45.20599147588112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>101.5798714036941</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>25.31590541686257</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>123.8167699816754</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274097</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014454</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.6780064526336</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>122.3137095599339</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274097</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1701,10 +1701,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014454</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>240.9346143185537</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.21123822906478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>68.04455780275937</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>204.1291651532056</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>25.84274131106362</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>128.3837363285897</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>133.5360696040809</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>207.1789546388885</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>48.37466424891505</v>
       </c>
       <c r="S28" t="n">
-        <v>155.1311709937394</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>91.82471917436081</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965501</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801183</v>
+        <v>91.23070601801231</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943739</v>
+        <v>90.21779139437439</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348202</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897879</v>
+        <v>93.71057173897927</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571464</v>
+        <v>7.203899898039623</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523545</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550459</v>
+        <v>142.7175533550464</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298319</v>
+        <v>166.3443044298324</v>
       </c>
       <c r="U31" t="n">
-        <v>231.03409577002</v>
+        <v>231.0340957700205</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604798</v>
+        <v>170.5063987604803</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235379</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224537</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1289.01781586839</v>
+        <v>1254.177966138804</v>
       </c>
       <c r="C2" t="n">
-        <v>920.0552989279781</v>
+        <v>1254.177966138804</v>
       </c>
       <c r="D2" t="n">
-        <v>920.0552989279781</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>920.0552989279781</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y2" t="n">
-        <v>1289.01781586839</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,19 +4410,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>122.7146065646829</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>122.7146065646829</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>122.7146065646829</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>707.5216547599696</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>707.5216547599696</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>493.2332315781322</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>493.2332315781322</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>204.0596212327002</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>204.0596212327002</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>204.0596212327002</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X4" t="n">
-        <v>204.0596212327002</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>272.8312459770186</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1667.156396867425</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C5" t="n">
-        <v>1667.156396867425</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>1667.156396867425</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>1281.36814426918</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>870.3822394795727</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>452.4184313777596</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2057.295728843236</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>2057.295728843236</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y5" t="n">
-        <v>1667.156396867425</v>
+        <v>1732.515907621104</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4656,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>289.0740493317993</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>120.1378664038924</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>554.6442689908469</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>554.6442689908469</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>554.6442689908469</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>554.6442689908469</v>
+        <v>470.722514162039</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.6442689908469</v>
+        <v>470.722514162039</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1957.780595683986</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C8" t="n">
-        <v>1588.818078743575</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>1230.552380136824</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>844.7641275385799</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.380435748108</v>
+        <v>2539.514470837914</v>
       </c>
       <c r="Y8" t="n">
-        <v>2344.380435748108</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="9">
@@ -4878,10 +4878,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4893,13 +4893,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>224.6669506791649</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5021,67 +5021,67 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822465</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823776</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514065</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515094</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619123</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.63284889912</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207823</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126479</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571601</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636235</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643584</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964473</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183169</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5154,7 +5154,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
         <v>1571.258395043133</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.3210135240245</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C13" t="n">
-        <v>506.3210135240245</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>394.5250474102529</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688095</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799388</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471179</v>
+        <v>779.0639759471217</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771459</v>
+        <v>1209.787631771464</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655719</v>
+        <v>955.1031435655767</v>
       </c>
       <c r="W13" t="n">
-        <v>955.1031435655719</v>
+        <v>665.6859735286162</v>
       </c>
       <c r="X13" t="n">
-        <v>727.1135926675546</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.3210135240245</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K14" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515094</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619124</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899121</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207823</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126479</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571601</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115527</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395488</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.90154205952</v>
+        <v>1800.67826817104</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278216</v>
+        <v>2080.218333389737</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060425</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5391,7 +5391,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
         <v>1571.258395043133</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>674.9958217162125</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="C16" t="n">
-        <v>506.0596387883056</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D16" t="n">
-        <v>506.0596387883056</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883056</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903952</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903952</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947118</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.9162705579</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.9162705579</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.9162705579</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771458</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771458</v>
+        <v>855.3442310418183</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344973</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="X16" t="n">
-        <v>692.38091083648</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="Y16" t="n">
-        <v>674.9958217162125</v>
+        <v>565.9270610048577</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.5082140836015</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>782.5720311556946</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>632.4553917433589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>484.5422981609657</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>484.5422981609657</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>316.3669764807863</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>165.9489680287297</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>786.082206476519</v>
       </c>
       <c r="V19" t="n">
-        <v>1133.156678913841</v>
+        <v>531.3977182706321</v>
       </c>
       <c r="W19" t="n">
-        <v>1133.156678913841</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>1133.156678913841</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.156678913841</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5750,7 +5750,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514086</v>
@@ -5771,13 +5771,13 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5832,10 +5832,10 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.7003690904326</v>
+        <v>588.5027791527958</v>
       </c>
       <c r="C22" t="n">
-        <v>562.7003690904326</v>
+        <v>588.5027791527958</v>
       </c>
       <c r="D22" t="n">
-        <v>562.7003690904326</v>
+        <v>438.3861397404601</v>
       </c>
       <c r="E22" t="n">
-        <v>562.7003690904326</v>
+        <v>438.3861397404601</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925222</v>
+        <v>291.4961922425497</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123428</v>
+        <v>123.3208705623703</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>123.3208705623703</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028587</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.787631771461</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="W22" t="n">
-        <v>920.3704617345002</v>
+        <v>809.295358296326</v>
       </c>
       <c r="X22" t="n">
-        <v>692.3809108364828</v>
+        <v>809.295358296326</v>
       </c>
       <c r="Y22" t="n">
-        <v>562.7003690904326</v>
+        <v>588.5027791527958</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,40 +5999,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6069,10 +6069,10 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
@@ -6084,10 +6084,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>564.1830073829217</v>
+        <v>526.9050513325903</v>
       </c>
       <c r="C25" t="n">
-        <v>395.2468244550147</v>
+        <v>526.9050513325903</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>526.9050513325903</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>378.9919577501971</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>232.1020102522868</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028587</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655741</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W25" t="n">
-        <v>745.8314722131614</v>
+        <v>754.8946022306077</v>
       </c>
       <c r="X25" t="n">
-        <v>745.8314722131614</v>
+        <v>526.9050513325903</v>
       </c>
       <c r="Y25" t="n">
-        <v>745.8314722131614</v>
+        <v>526.9050513325903</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>376.9270045185177</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1450.052973336777</v>
       </c>
       <c r="S28" t="n">
-        <v>1231.143014600799</v>
+        <v>1250.132963252329</v>
       </c>
       <c r="T28" t="n">
-        <v>1007.357599390305</v>
+        <v>1026.347548041835</v>
       </c>
       <c r="U28" t="n">
-        <v>1007.357599390305</v>
+        <v>737.2189092553931</v>
       </c>
       <c r="V28" t="n">
-        <v>1007.357599390305</v>
+        <v>737.2189092553931</v>
       </c>
       <c r="W28" t="n">
-        <v>1007.357599390305</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="X28" t="n">
-        <v>779.3680484922876</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y28" t="n">
-        <v>558.5754693487575</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="29">
@@ -6440,34 +6440,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,34 +6476,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>730.4517433652508</v>
+        <v>494.8466681110194</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749873</v>
+        <v>494.8466681110194</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440226</v>
+        <v>494.8466681110194</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430005</v>
+        <v>402.6944398099969</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264612</v>
+        <v>311.5653575934571</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276529</v>
+        <v>199.1509011946484</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569673</v>
+        <v>104.4937580239622</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933506</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667516</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962062</v>
+        <v>997.6688721962046</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021649</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899273</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096196</v>
+        <v>1791.966918252996</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167073</v>
+        <v>1623.942368323872</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662002</v>
+        <v>1390.574594818801</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737487</v>
+        <v>1191.650971894285</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981897</v>
+        <v>957.9946671386949</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652508</v>
+        <v>785.7659815220482</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652508</v>
+        <v>620.7342676598885</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6719,7 +6719,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6765,13 +6765,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6780,25 +6780,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108341</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E37" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045217</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010327</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7154,25 +7154,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7187,13 +7187,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7239,13 +7239,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7254,25 +7254,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,7 +7372,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
         <v>772.2886129010315</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,43 +7394,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7570,10 +7570,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7725,22 +7725,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110832</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045198</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010307</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>180.0237016735922</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445237</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627446</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298972</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>288.4091825776803</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>253.7371603504732</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445237</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298194</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q27" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23419,10 +23419,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>37.9374665655788</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>103.3959458291032</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>11.20302900527435</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>201.37341512303</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>42.3746876615126</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338542</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>84.57650415320835</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.20091702350504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>32.95749885929669</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,22 +24412,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>79.34404369770246</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>61.58968815487772</v>
       </c>
       <c r="S28" t="n">
-        <v>42.78963898986387</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>20.2188452957097</v>
+        <v>112.043564470071</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.4122163896555</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>48.0120889376755</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523592</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1133018.753630357</v>
+        <v>1133018.753630356</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>307890.6636991063</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="D2" t="n">
         <v>307890.6636991064</v>
       </c>
       <c r="E2" t="n">
-        <v>293271.7948032814</v>
+        <v>293271.7948032817</v>
       </c>
       <c r="F2" t="n">
-        <v>293271.7948032814</v>
+        <v>293271.7948032815</v>
       </c>
       <c r="G2" t="n">
         <v>293271.7948032815</v>
       </c>
       <c r="H2" t="n">
-        <v>293271.7948032816</v>
+        <v>293271.7948032815</v>
       </c>
       <c r="I2" t="n">
-        <v>293271.7948032816</v>
+        <v>293271.7948032815</v>
       </c>
       <c r="J2" t="n">
-        <v>293271.7948032815</v>
+        <v>293271.7948032814</v>
       </c>
       <c r="K2" t="n">
-        <v>305116.6030089525</v>
+        <v>305116.6030089521</v>
       </c>
       <c r="L2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991062</v>
       </c>
       <c r="M2" t="n">
+        <v>307890.6636991064</v>
+      </c>
+      <c r="N2" t="n">
         <v>307890.6636991062</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>307890.6636991063</v>
       </c>
-      <c r="O2" t="n">
-        <v>307890.6636991062</v>
-      </c>
       <c r="P2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991063</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768951</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.325850575994991e-09</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284587</v>
+        <v>44162.60530284548</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086666</v>
+        <v>10342.90680086702</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284588</v>
+        <v>44162.60530284549</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="G4" t="n">
+        <v>15045.66962143907</v>
+      </c>
+      <c r="H4" t="n">
         <v>15045.66962143906</v>
       </c>
-      <c r="H4" t="n">
-        <v>15045.66962143908</v>
-      </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="J4" t="n">
         <v>15045.66962143911</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563573</v>
+        <v>33210.29213563555</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275962</v>
       </c>
       <c r="N4" t="n">
+        <v>37464.45686275958</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275957</v>
       </c>
-      <c r="O4" t="n">
-        <v>37464.4568627596</v>
-      </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871665</v>
@@ -26491,22 +26491,22 @@
         <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-521711.2518300703</v>
+        <v>-521711.2518300702</v>
       </c>
       <c r="C6" t="n">
-        <v>68256.62738447418</v>
+        <v>68256.6273844743</v>
       </c>
       <c r="D6" t="n">
-        <v>68256.62738447436</v>
+        <v>68256.62738447428</v>
       </c>
       <c r="E6" t="n">
-        <v>-338921.2372437694</v>
+        <v>-339018.6963697427</v>
       </c>
       <c r="F6" t="n">
-        <v>186238.7992331257</v>
+        <v>186141.3401071536</v>
       </c>
       <c r="G6" t="n">
-        <v>186238.7992331245</v>
+        <v>186141.3401071536</v>
       </c>
       <c r="H6" t="n">
-        <v>186238.7992331259</v>
+        <v>186141.3401071536</v>
       </c>
       <c r="I6" t="n">
-        <v>186238.7992331258</v>
+        <v>186141.3401071536</v>
       </c>
       <c r="J6" t="n">
-        <v>9815.580040533125</v>
+        <v>9718.120914560626</v>
       </c>
       <c r="K6" t="n">
-        <v>131115.4970402481</v>
+        <v>131097.0033023139</v>
       </c>
       <c r="L6" t="n">
-        <v>162368.1942154545</v>
+        <v>162368.1942154542</v>
       </c>
       <c r="M6" t="n">
-        <v>37910.08578248399</v>
+        <v>37910.08578248415</v>
       </c>
       <c r="N6" t="n">
-        <v>172711.1010163213</v>
+        <v>172711.1010163212</v>
       </c>
       <c r="O6" t="n">
-        <v>172711.1010163212</v>
+        <v>172711.1010163215</v>
       </c>
       <c r="P6" t="n">
-        <v>128548.4957134753</v>
+        <v>128548.4957134758</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,43 +26735,43 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054540988</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054540988</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="L3" t="n">
         <v>830.3824054541004</v>
       </c>
-      <c r="I3" t="n">
+      <c r="M3" t="n">
         <v>830.3824054541004</v>
       </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26793,10 +26793,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108333</v>
+        <v>12.92863350108377</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855686</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370122</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855685</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>139.0419391527953</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>39.06311083518733</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>99.22589376217566</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.721493802914086</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>81.36339394739724</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>246.3246235128169</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>128.2824964690567</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>114.5320061785463</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>361.6700542658303</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>268.1512292747749</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>128.3208733421526</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2.243420264373223e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855734</v>
+        <v>55.20325662855685</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443611</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444939</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304431</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565509</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927176</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540877</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946984</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.490283364749</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.7861055513541</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386723</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127054</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724838</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813454</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855519</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458543</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677459</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361477</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298622</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171315</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263747</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.105041346907</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337658</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892234</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351801</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443611</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444939</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304431</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565509</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927176</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540877</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946984</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.490283364749</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.7861055513541</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386723</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127054</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724838</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813454</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855519</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458543</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677459</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361477</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298622</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171315</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263747</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.105041346907</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337658</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892234</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351801</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32482,13 +32482,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32503,7 +32503,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32558,7 +32558,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813463</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,10 +32619,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32631,10 +32631,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32643,7 +32643,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,13 +32655,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32707,40 +32707,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32792,19 +32792,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32813,13 +32813,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,37 +33184,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415074</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109063</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221107</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081108</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951463</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109115</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502042</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349773</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953152</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005173</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504655</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>513.2182750716042</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714612</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507373</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556535</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299103</v>
+        <v>151.7024285299129</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118005</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187453</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415074</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109063</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221107</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081108</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951463</v>
+        <v>713.1546070951466</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109115</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502042</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970350501</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953152</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>537.666887533704</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504655</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315241</v>
+        <v>460.830575281998</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209228</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556535</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299103</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118005</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187453</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36130,19 +36130,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005179</v>
@@ -36209,19 +36209,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36522,19 +36522,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q27" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412287</v>
+        <v>67.7110267941224</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584679</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084859</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075299</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.480134434161</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491602</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403581</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004321</v>
+        <v>94.42895660043163</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38111,7 +38111,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
